--- a/Guru99/2 - Analysis/Test Scenarios.xlsx
+++ b/Guru99/2 - Analysis/Test Scenarios.xlsx
@@ -8,36 +8,116 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru99\2 - Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857EF11F-C15C-4F48-BC84-C0AFA78E342D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617D38DF-BD46-46F5-93D5-2522683036D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8265" yWindow="0" windowWidth="8370" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Questions</t>
   </si>
   <si>
     <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>Actors</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Verify Manager can add new customer</t>
+  </si>
+  <si>
+    <t>Verify Manager can add edit customer information</t>
+  </si>
+  <si>
+    <t>Verify Manager can make a withdrawal</t>
+  </si>
+  <si>
+    <t>Verify Manager can Login &amp; Logout</t>
+  </si>
+  <si>
+    <t>Verify Customer can Login &amp; Logout</t>
+  </si>
+  <si>
+    <t>Verify Manager can check Balance Enquiry of all customers</t>
+  </si>
+  <si>
+    <t>Verify Manager can make fund transfer from bank source account</t>
+  </si>
+  <si>
+    <t>Verify Customer can make fund transfer from his own account</t>
+  </si>
+  <si>
+    <t>Verify Customer can check his own account Balance Enquiry</t>
+  </si>
+  <si>
+    <t>Verify Manager can change account password of his own account</t>
+  </si>
+  <si>
+    <t>Verify Customer can change account password of his own account</t>
+  </si>
+  <si>
+    <t>Verify Manager can see Mini Statement of customers accounts</t>
+  </si>
+  <si>
+    <t>Verify Customer can see Mini Statement of his own account</t>
+  </si>
+  <si>
+    <t>Verify Customer can see customized Statement of his own account</t>
+  </si>
+  <si>
+    <t>Verify Manager can see customized Statement of customers accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Manager can delete customer info </t>
+  </si>
+  <si>
+    <t>Verify Manager can add new account to existing customer</t>
+  </si>
+  <si>
+    <t>Verify Manager can edit account information</t>
+  </si>
+  <si>
+    <t>Verify Manager can delete customer account</t>
+  </si>
+  <si>
+    <t>Verify Manager can make a deposite to existing account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,8 +133,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -64,6 +152,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -80,12 +180,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -368,132 +480,395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="10" width="15.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.5">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="42">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F11:J11"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Guru99/2 - Analysis/Test Scenarios.xlsx
+++ b/Guru99/2 - Analysis/Test Scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru99\2 - Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617D38DF-BD46-46F5-93D5-2522683036D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1DEE49-7ABF-4227-9D90-B06EB012B3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8265" yWindow="0" windowWidth="8370" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,24 +180,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -482,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,18 +489,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -530,59 +527,59 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
@@ -592,13 +589,13 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
@@ -728,13 +725,13 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -756,13 +753,13 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -770,13 +767,13 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -827,6 +824,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F17:J17"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A9:E9"/>
@@ -843,32 +866,6 @@
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
